--- a/vwoa.xlsx
+++ b/vwoa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bertjan/Projects/examenfit/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBECEFE-4257-2341-942C-4ACAD763F4DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DC2579-CA8C-3242-A8EB-E3934138F942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33480" windowHeight="37800" xr2:uid="{6DFEB707-863B-7B40-8FCC-4842B800C519}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33480" windowHeight="37300" xr2:uid="{6DFEB707-863B-7B40-8FCC-4842B800C519}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$R$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1868,13 +1868,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749BD3E2-6636-194F-BBA3-EAD7A6486513}">
   <dimension ref="A1:R139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
@@ -8572,5 +8575,6 @@
   </sheetData>
   <autoFilter ref="A1:R1" xr:uid="{187DD16F-A7F9-1C49-AFBC-B13EF475C825}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/vwoa.xlsx
+++ b/vwoa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bertjan/Projects/examenfit/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DC2579-CA8C-3242-A8EB-E3934138F942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1100A7-A100-C24E-B7F2-C8B226D2DF53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33480" windowHeight="37300" xr2:uid="{6DFEB707-863B-7B40-8FCC-4842B800C519}"/>
+    <workbookView xWindow="33600" yWindow="500" windowWidth="33600" windowHeight="37300" xr2:uid="{6DFEB707-863B-7B40-8FCC-4842B800C519}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="422">
   <si>
     <t>Opgave</t>
   </si>
@@ -1442,6 +1442,202 @@
   </si>
   <si>
     <t>Beredeneer / Leguit</t>
+  </si>
+  <si>
+    <t>Zonnepanelen</t>
+  </si>
+  <si>
+    <t>Exponentieel verband
+Groeifactor
+Exponentiële formule opstellen
+Afronden
+Mathematiseren</t>
+  </si>
+  <si>
+    <t>Exponentiële formule opstellen bij gegevens in tekst</t>
+  </si>
+  <si>
+    <t>C2: Tabellen</t>
+  </si>
+  <si>
+    <t>Tabel</t>
+  </si>
+  <si>
+    <t>Gebroken verband
+Differentiëren
+Kwalitatief redeneren
+Quotiëntregel
+Stijgen/dalen</t>
+  </si>
+  <si>
+    <t>C1: Machts-, wortel- en gebroken functies
+C2: Tabellen</t>
+  </si>
+  <si>
+    <t>Tabel
+Mathematiseren
+Gebroken verband
+(omgekeerd) evenredig</t>
+  </si>
+  <si>
+    <t>Evenredige formules opstellen, combineren tot quotiëntformule</t>
+  </si>
+  <si>
+    <t>Eén miljard hartslagen</t>
+  </si>
+  <si>
+    <t>Grootheden en eenheden</t>
+  </si>
+  <si>
+    <t>Grootheden en eenheden
+Herleiden
+Mathematiseren</t>
+  </si>
+  <si>
+    <t>Tijdseenheden omrekenen, gebroken formule opstellen</t>
+  </si>
+  <si>
+    <t>C1: Machts-, wortel-  en gebroken functies
+D3: Afgeleide</t>
+  </si>
+  <si>
+    <t>Gebroken verband
+Differentiëren
+Kwalitatief redeneren
+Soorten stijgen/dalen</t>
+  </si>
+  <si>
+    <t>Gebroken functie differentiëren (quotiëntregel of kettingregel), kwalitatief redeneren (soorten stijgen/dalen)</t>
+  </si>
+  <si>
+    <t>Logaritmische schaalverdeling
+Exponentiële formule opstellen
+Groeifactor
+Afronden
+Mathematiseren</t>
+  </si>
+  <si>
+    <t>Waarden aflezen uit grafiek met logaritmische schaalverdeling, exponentiële formule opstellen</t>
+  </si>
+  <si>
+    <t>Herleiden
+Rekenregels voor logaritmes
+Logaritmisch verband
+Afronden</t>
+  </si>
+  <si>
+    <t>Exponentieel verband herleiden tot logaritmische verband (rekenregels voor logaritmes)</t>
+  </si>
+  <si>
+    <t>De formule van Riegel en kilometertijden</t>
+  </si>
+  <si>
+    <t>Grootheden en eenheden
+Machtsverband</t>
+  </si>
+  <si>
+    <t>Tijdseenheden omrekenen, waarden invullen in formule</t>
+  </si>
+  <si>
+    <t>Gebroken verband
+Machtsverband
+Kwalitatief redeneren</t>
+  </si>
+  <si>
+    <t>Kwalitatief redeneren over breuken</t>
+  </si>
+  <si>
+    <t>Machtsverband
+Gebroken verband
+Grootheden en eenheden
+Percentages</t>
+  </si>
+  <si>
+    <t>Waarden kiezen, waarden invullen in formule, percentage berekenen, stelling verifiëren</t>
+  </si>
+  <si>
+    <t>Machtsverband
+Herleiden
+Substitutie
+Rekenregels voor machten
+Afronden</t>
+  </si>
+  <si>
+    <t>Formules samenvoegen, uitdrukking met machten herleiden</t>
+  </si>
+  <si>
+    <t>Grootheden en eenheden
+Grafische rekenmachine
+Exponentieel verband
+Afronden</t>
+  </si>
+  <si>
+    <t>Tijdseenheden omrekenen, waarden invullen in formule, waarde parameter bepalen</t>
+  </si>
+  <si>
+    <t>Zentrum Paul Klee</t>
+  </si>
+  <si>
+    <t>Afronden
+Sinusoïden
+Grafische rekenmachine</t>
+  </si>
+  <si>
+    <t>Sinusvergelijking oplossen (GR)</t>
+  </si>
+  <si>
+    <t>Sinusfunctie opstellen</t>
+  </si>
+  <si>
+    <t>Afronden
+Sinusoïden
+Grafische rekenmachine
+Mathematiseren</t>
+  </si>
+  <si>
+    <t>Sinusfunctie opstellen (GR), conclusie trekken op basis van formule</t>
+  </si>
+  <si>
+    <t>Pi in het oude India</t>
+  </si>
+  <si>
+    <t>Rijen</t>
+  </si>
+  <si>
+    <t>Rij voortzetten, optelling berekenen en vergelijken met gegeven waarde</t>
+  </si>
+  <si>
+    <t>Parameters
+Rijen
+Mathematiseren
+Directe formule</t>
+  </si>
+  <si>
+    <t>Waarde van twee parameters in een directe formule bepalen door twee punten in te vullen</t>
+  </si>
+  <si>
+    <t>Rijen
+Recursieve formule
+Somrij
+Mathematiseren</t>
+  </si>
+  <si>
+    <t>Recursieve formule van somrij opstellen bij eerste 5 waarden</t>
+  </si>
+  <si>
+    <t>Benzine of diesel?</t>
+  </si>
+  <si>
+    <t>C2: Tabellen
+C2: Grafieken</t>
+  </si>
+  <si>
+    <t>Afronden
+Grafiek
+Tabel</t>
+  </si>
+  <si>
+    <t>Gegevens uit tabellen en grafiek verwerken</t>
   </si>
 </sst>
 </file>
@@ -1866,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749BD3E2-6636-194F-BBA3-EAD7A6486513}">
-  <dimension ref="A1:R139"/>
+  <dimension ref="A1:R162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView tabSelected="1" topLeftCell="E146" workbookViewId="0">
+      <selection activeCell="I153" sqref="I153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1930,7 +2126,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="192" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1984,7 +2180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="144" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2">
         <v>2</v>
@@ -2036,7 +2232,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="192" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="112" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2">
         <v>3</v>
@@ -2140,7 +2336,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="256" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="128" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>5</v>
@@ -2350,7 +2546,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="160" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2">
         <v>9</v>
@@ -2508,7 +2704,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="128" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2">
         <v>12</v>
@@ -2766,7 +2962,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="128" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="96" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>17</v>
@@ -2814,7 +3010,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="80" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2">
         <v>18</v>
@@ -2910,7 +3106,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="192" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="128" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>156</v>
       </c>
@@ -3032,7 +3228,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="272" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="112" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>175</v>
       </c>
@@ -3188,7 +3384,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="80" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>182</v>
       </c>
@@ -3242,7 +3438,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="136" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>5</v>
       </c>
@@ -3293,7 +3489,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="153" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="128" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>6</v>
       </c>
@@ -3398,7 +3594,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="136" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="96" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>8</v>
       </c>
@@ -3449,7 +3645,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="64" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>9</v>
       </c>
@@ -3500,7 +3696,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="187" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="160" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>10</v>
       </c>
@@ -3551,7 +3747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="64" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>11</v>
       </c>
@@ -3602,7 +3798,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>202</v>
       </c>
@@ -3656,7 +3852,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>13</v>
       </c>
@@ -3707,7 +3903,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="80" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>14</v>
       </c>
@@ -3758,7 +3954,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="80" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>15</v>
       </c>
@@ -3809,7 +4005,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" ht="112" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>16</v>
       </c>
@@ -3906,7 +4102,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>18</v>
       </c>
@@ -4135,7 +4331,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="272" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="112" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>175</v>
       </c>
@@ -4291,7 +4487,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="80" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>182</v>
       </c>
@@ -4345,7 +4541,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="136" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>5</v>
       </c>
@@ -4396,7 +4592,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="153" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="128" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>6</v>
       </c>
@@ -4501,7 +4697,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="136" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="96" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>8</v>
       </c>
@@ -4552,7 +4748,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="64" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>9</v>
       </c>
@@ -4603,7 +4799,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="187" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="160" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>10</v>
       </c>
@@ -4654,7 +4850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="64" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>11</v>
       </c>
@@ -4705,7 +4901,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>202</v>
       </c>
@@ -4759,7 +4955,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>13</v>
       </c>
@@ -4810,7 +5006,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="80" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>14</v>
       </c>
@@ -4861,7 +5057,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" ht="80" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>15</v>
       </c>
@@ -4912,7 +5108,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" ht="112" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>16</v>
       </c>
@@ -5009,7 +5205,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>18</v>
       </c>
@@ -5292,7 +5488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="160" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" ht="96" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>2</v>
       </c>
@@ -5496,7 +5692,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="136" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" ht="80" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>232</v>
       </c>
@@ -5550,7 +5746,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" ht="80" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>7</v>
       </c>
@@ -5601,7 +5797,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="204" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" ht="128" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>8</v>
       </c>
@@ -5652,7 +5848,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="136" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>9</v>
       </c>
@@ -6250,7 +6446,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>267</v>
       </c>
@@ -6338,7 +6534,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" ht="96" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>270</v>
       </c>
@@ -6392,7 +6588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" ht="96" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>2</v>
       </c>
@@ -6701,7 +6897,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="153" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" ht="128" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>8</v>
       </c>
@@ -6752,7 +6948,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" ht="80" x14ac:dyDescent="0.2">
       <c r="B102">
         <v>9</v>
       </c>
@@ -6857,7 +7053,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="B104">
         <v>11</v>
       </c>
@@ -7162,7 +7358,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="170" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" ht="160" x14ac:dyDescent="0.2">
       <c r="B110">
         <v>17</v>
       </c>
@@ -7400,7 +7596,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="187" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" ht="128" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>317</v>
       </c>
@@ -7574,7 +7770,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="187" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18" ht="144" x14ac:dyDescent="0.2">
       <c r="B119">
         <v>3</v>
       </c>
@@ -7832,7 +8028,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="153" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>342</v>
       </c>
@@ -7886,7 +8082,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="B125">
         <v>9</v>
       </c>
@@ -7937,7 +8133,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" ht="96" x14ac:dyDescent="0.2">
       <c r="B126">
         <v>10</v>
       </c>
@@ -8090,7 +8286,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>353</v>
       </c>
@@ -8144,7 +8340,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="B130">
         <v>14</v>
       </c>
@@ -8343,7 +8539,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18" ht="64" x14ac:dyDescent="0.2">
       <c r="B134">
         <v>18</v>
       </c>
@@ -8390,7 +8586,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18" ht="64" x14ac:dyDescent="0.2">
       <c r="B135">
         <v>19</v>
       </c>
@@ -8534,43 +8730,1138 @@
         <v>90</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
-      <c r="K138" s="2"/>
-      <c r="L138" s="2"/>
+    <row r="138" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B138" s="2">
+        <v>1</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I138" s="2" t="str">
+        <f>VLOOKUP(G138,$O$2:$P$16,2)</f>
+        <v>Exponenten en logaritmen</v>
+      </c>
+      <c r="J138" s="2" t="str">
+        <f>VLOOKUP(K138,$Q$2:$R$24,2)</f>
+        <v>Exponentiële en logaritmische functies</v>
+      </c>
+      <c r="K138" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L138" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
-      <c r="O138" s="2"/>
-      <c r="P138" s="2"/>
+      <c r="O138" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P138" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="Q138" s="4" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="R138" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" ht="64" x14ac:dyDescent="0.2">
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I139" s="2" t="str">
+        <f t="shared" ref="I139:I158" si="12">VLOOKUP(G139,$O$2:$P$16,2)</f>
+        <v>Verbanden en grafieken</v>
+      </c>
+      <c r="J139" s="2" t="str">
+        <f t="shared" ref="J139:J158" si="13">VLOOKUP(K139,$Q$2:$R$24,2)</f>
+        <v xml:space="preserve">Verbanden </v>
+      </c>
+      <c r="K139" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L139" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
-      <c r="O139" s="2"/>
-      <c r="P139" s="2"/>
+      <c r="O139" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P139" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="Q139" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R139" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" ht="160" x14ac:dyDescent="0.2">
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>53</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I140" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Toepassingen van de differentiaalrekening</v>
+      </c>
+      <c r="J140" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Differentiëren</v>
+      </c>
+      <c r="K140" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L140" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
+      <c r="O140" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P140" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q140" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R140" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" ht="112" x14ac:dyDescent="0.2">
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141" t="s">
+        <v>36</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I141" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Allerlei formules</v>
+      </c>
+      <c r="J141" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Functies bewerken</v>
+      </c>
+      <c r="K141" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L141" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+      <c r="O141" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P141" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q141" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R141" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>383</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I142" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Getallen en variabelen</v>
+      </c>
+      <c r="J142" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Functies bewerken</v>
+      </c>
+      <c r="K142" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L142" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+      <c r="O142" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P142" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q142" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R142" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+      <c r="B143">
+        <v>6</v>
+      </c>
+      <c r="C143" t="s">
+        <v>36</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I143" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Allerlei formules</v>
+      </c>
+      <c r="J143" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Functies bewerken</v>
+      </c>
+      <c r="K143" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L143" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+      <c r="O143" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P143" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q143" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="R143" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" ht="192" x14ac:dyDescent="0.2">
+      <c r="B144">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>25</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I144" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Toepassingen van de differentiaalrekening</v>
+      </c>
+      <c r="J144" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Differentiëren</v>
+      </c>
+      <c r="K144" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+      <c r="O144" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P144" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q144" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R144" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" ht="160" x14ac:dyDescent="0.2">
+      <c r="B145">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
+        <v>36</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I145" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Exponenten en logaritmen</v>
+      </c>
+      <c r="J145" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Exponentiële en logaritmische functies</v>
+      </c>
+      <c r="K145" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L145" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P145" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q145" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R145" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" ht="144" x14ac:dyDescent="0.2">
+      <c r="B146">
+        <v>9</v>
+      </c>
+      <c r="C146" t="s">
+        <v>115</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I146" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Allerlei formules</v>
+      </c>
+      <c r="J146" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Exponentiële en logaritmische functies</v>
+      </c>
+      <c r="K146" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L146" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P146" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q146" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R146" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>394</v>
+      </c>
+      <c r="B147">
+        <v>10</v>
+      </c>
+      <c r="C147" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I147" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Getallen en variabelen</v>
+      </c>
+      <c r="J147" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">Verbanden </v>
+      </c>
+      <c r="K147" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R139" s="4" t="s">
+      <c r="L147" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+      <c r="O147" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P147" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q147" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="R147" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" ht="64" x14ac:dyDescent="0.2">
+      <c r="B148">
+        <v>11</v>
+      </c>
+      <c r="C148" t="s">
+        <v>25</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I148" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Allerlei formules</v>
+      </c>
+      <c r="J148" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">Verbanden </v>
+      </c>
+      <c r="K148" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L148" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
+      <c r="O148" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P148" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q148" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="R148" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" ht="144" x14ac:dyDescent="0.2">
+      <c r="B149">
+        <v>12</v>
+      </c>
+      <c r="C149" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I149" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Allerlei formules</v>
+      </c>
+      <c r="J149" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">Verbanden </v>
+      </c>
+      <c r="K149" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L149" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
+      <c r="O149" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="P149" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q149" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="R149" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" ht="112" x14ac:dyDescent="0.2">
+      <c r="B150">
+        <v>13</v>
+      </c>
+      <c r="C150" t="s">
+        <v>115</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I150" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Allerlei formules</v>
+      </c>
+      <c r="J150" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Functies bewerken</v>
+      </c>
+      <c r="K150" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L150" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="M150" s="2"/>
+      <c r="N150" s="2"/>
+      <c r="O150" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P150" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q150" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R150" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" ht="144" x14ac:dyDescent="0.2">
+      <c r="B151">
+        <v>14</v>
+      </c>
+      <c r="C151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I151" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Exponenten en logaritmen</v>
+      </c>
+      <c r="J151" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Exponentiële en logaritmische functies</v>
+      </c>
+      <c r="K151" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L151" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
+      <c r="O151" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P151" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q151" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R151" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" ht="64" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>405</v>
+      </c>
+      <c r="B152">
+        <v>15</v>
+      </c>
+      <c r="C152" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I152" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Allerlei formules</v>
+      </c>
+      <c r="J152" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Periodieke functies</v>
+      </c>
+      <c r="K152" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L152" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="M152" s="2"/>
+      <c r="N152" s="2"/>
+      <c r="O152" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P152" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q152" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="R152" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="B153">
+        <v>16</v>
+      </c>
+      <c r="C153" t="s">
+        <v>36</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I153" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Allerlei formules</v>
+      </c>
+      <c r="J153" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Periodieke functies</v>
+      </c>
+      <c r="K153" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L153" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="M153" s="2"/>
+      <c r="N153" s="2"/>
+      <c r="O153" s="2"/>
+      <c r="P153" s="2"/>
+      <c r="Q153" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="R153" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" ht="112" x14ac:dyDescent="0.2">
+      <c r="B154">
+        <v>17</v>
+      </c>
+      <c r="C154" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I154" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Allerlei formules</v>
+      </c>
+      <c r="J154" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Periodieke functies</v>
+      </c>
+      <c r="K154" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L154" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="M154" s="2"/>
+      <c r="N154" s="2"/>
+      <c r="O154" s="2"/>
+      <c r="P154" s="2"/>
+      <c r="Q154" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="R154" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" ht="128" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>411</v>
+      </c>
+      <c r="B155">
+        <v>18</v>
+      </c>
+      <c r="C155" t="s">
+        <v>169</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I155" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Rijen en veranderingen</v>
+      </c>
+      <c r="J155" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Rijen en recursie</v>
+      </c>
+      <c r="K155" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L155" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M155" s="2"/>
+      <c r="N155" s="2"/>
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
+      <c r="Q155" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="R155" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" ht="160" x14ac:dyDescent="0.2">
+      <c r="B156">
+        <v>19</v>
+      </c>
+      <c r="C156" t="s">
+        <v>36</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I156" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Rijen en veranderingen</v>
+      </c>
+      <c r="J156" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Rijen en recursie</v>
+      </c>
+      <c r="K156" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L156" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M156" s="2"/>
+      <c r="N156" s="2"/>
+      <c r="O156" s="2"/>
+      <c r="P156" s="2"/>
+      <c r="Q156" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="R156" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+      <c r="B157">
+        <v>20</v>
+      </c>
+      <c r="C157" t="s">
+        <v>36</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I157" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Rijen en veranderingen</v>
+      </c>
+      <c r="J157" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Rijen en recursie</v>
+      </c>
+      <c r="K157" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L157" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M157" s="2"/>
+      <c r="N157" s="2"/>
+      <c r="O157" s="2"/>
+      <c r="P157" s="2"/>
+      <c r="Q157" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="R157" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" ht="64" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>418</v>
+      </c>
+      <c r="B158">
+        <v>21</v>
+      </c>
+      <c r="C158" t="s">
+        <v>169</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H158" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I158" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Getallen en variabelen</v>
+      </c>
+      <c r="J158" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">Verbanden </v>
+      </c>
+      <c r="K158" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L158" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M158" s="2"/>
+      <c r="N158" s="2"/>
+      <c r="O158" s="2"/>
+      <c r="P158" s="2"/>
+      <c r="Q158" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R158" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2"/>
+      <c r="M159" s="2"/>
+      <c r="N159" s="2"/>
+      <c r="O159" s="2"/>
+      <c r="P159" s="2"/>
+      <c r="Q159" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="R159" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="2"/>
+      <c r="L160" s="2"/>
+      <c r="M160" s="2"/>
+      <c r="N160" s="2"/>
+      <c r="O160" s="2"/>
+      <c r="P160" s="2"/>
+      <c r="Q160" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R160" s="4" t="s">
         <v>163</v>
       </c>
+    </row>
+    <row r="161" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2"/>
+      <c r="L161" s="2"/>
+      <c r="M161" s="2"/>
+      <c r="N161" s="2"/>
+      <c r="O161" s="2"/>
+      <c r="P161" s="2"/>
+      <c r="Q161" s="2"/>
+      <c r="R161" s="2"/>
+    </row>
+    <row r="162" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="2"/>
+      <c r="R162" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:R1" xr:uid="{187DD16F-A7F9-1C49-AFBC-B13EF475C825}"/>
